--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2928614.311471053</v>
+        <v>3036765.404385348</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8526316.596638758</v>
+        <v>8532359.607226014</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>108.3904376417215</v>
+        <v>112.9202415154696</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249216</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +876,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>56.87314969971275</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>324.5183491707101</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.507005948312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>80.99478744914573</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>125.3871841894422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>230.1984816395451</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>251.7205243996717</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>121.2733567894786</v>
+        <v>190.5526341827785</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701361</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.6718493954796</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212365</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.14614278817986</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158277</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1895,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758761</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.42659968729247</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>180.2167889402269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F28" t="n">
-        <v>108.9065924712593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>14.73874327217562</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>106.1291803787684</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183164</v>
       </c>
       <c r="D37" t="n">
-        <v>22.04658882052618</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>142.1343012721637</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20064764874485</v>
+        <v>201.4105577836251</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1181.996585635751</v>
+        <v>2448.278478384529</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>2058.139146408717</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4403,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4413,13 +4415,13 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>454.1085201488559</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>674.901099292386</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>454.1085201488559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.158487398107</v>
+        <v>1488.36845381066</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1119.405936870249</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>761.1402382634981</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>761.1402382634981</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4562,55 +4564,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.593687005979</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.593687005979</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.593687005979</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="Y5" t="n">
-        <v>2020.758327462229</v>
+        <v>1488.36845381066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143487</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458206</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.8349612147969</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>347.89877828689</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1554.633203459199</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1358.00445561906</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1358.00445561906</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1068.886118122898</v>
       </c>
       <c r="V7" t="n">
-        <v>698.4834260450366</v>
+        <v>814.2016299170109</v>
       </c>
       <c r="W7" t="n">
-        <v>698.4834260450366</v>
+        <v>524.7844598800502</v>
       </c>
       <c r="X7" t="n">
-        <v>698.4834260450366</v>
+        <v>524.7844598800502</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.4834260450366</v>
+        <v>303.9918807365201</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1198.574246756698</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.07259001514</v>
+        <v>1198.574246756698</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.80689140839</v>
+        <v>1198.574246756698</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101456</v>
+        <v>1198.574246756698</v>
       </c>
       <c r="F8" t="n">
-        <v>341.032734020538</v>
+        <v>787.5883419670902</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>371.883591691379</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1301.51325105098</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.09608101402</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X10" t="n">
-        <v>784.1065301160024</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.3139509724723</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5042,13 +5044,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5264,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5309,10 +5311,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5537,16 +5539,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,13 +5776,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>2978.516248701935</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>1029.292738813773</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,31 +6244,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>3807.864035926977</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>594.8179559048583</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6716,10 +6718,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2497.745796000626</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.843151638089</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101821</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978464</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683287</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101821</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7135,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,55 +7162,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7421,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7783,25 +7785,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,16 +7830,16 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8061,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>199.7516311504071</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780631</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>294.8344935184717</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>106.4657939283484</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>144.1654765207633</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.8202214113354</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>45.49286644881028</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="F28" t="n">
-        <v>36.51445555167193</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>131.6952193743936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>180.3938179578226</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="D37" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>38.89198472948087</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.9838267404993</v>
+        <v>84.77391660561901</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745646.9764929906</v>
+        <v>752183.0967441685</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.3233361408</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365054</v>
@@ -26329,10 +26331,10 @@
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
@@ -26344,16 +26346,16 @@
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.183430613419001e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>86694.40323307097</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719586</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719587</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719665</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719643</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719626</v>
+        <v>7507.368461719601</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778677</v>
+        <v>-642917.9151778675</v>
       </c>
       <c r="C6" t="n">
+        <v>471833.8683980512</v>
+      </c>
+      <c r="D6" t="n">
         <v>471833.8683980517</v>
       </c>
-      <c r="D6" t="n">
-        <v>310630.0201498388</v>
-      </c>
       <c r="E6" t="n">
-        <v>252032.2496435234</v>
+        <v>69959.26982633292</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508791</v>
+        <v>577444.711450879</v>
       </c>
       <c r="G6" t="n">
         <v>577444.711450879</v>
       </c>
       <c r="H6" t="n">
+        <v>577444.7114508788</v>
+      </c>
+      <c r="I6" t="n">
         <v>577444.711450879</v>
       </c>
-      <c r="I6" t="n">
-        <v>577444.7114508788</v>
-      </c>
       <c r="J6" t="n">
-        <v>409839.5336408964</v>
+        <v>409839.5336408963</v>
       </c>
       <c r="K6" t="n">
         <v>577444.7114508789</v>
       </c>
       <c r="L6" t="n">
-        <v>529150.7414426879</v>
+        <v>577444.7114508786</v>
       </c>
       <c r="M6" t="n">
-        <v>492389.6835153667</v>
+        <v>444837.4177219521</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.7114508788</v>
+        <v>577444.711450879</v>
       </c>
       <c r="O6" t="n">
         <v>577444.7114508791</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.229288266773751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>261.3406630367475</v>
+        <v>256.8108591629994</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>168.8365056893244</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>82.35769657100133</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.7309327077416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.56278497042787</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>126.7504591343858</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7232440139083</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>49.29802816273369</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>130.8642865343494</v>
+        <v>61.58500914104954</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30283,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.069522278642316e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>353.130074847795</v>
+        <v>400.8433522134838</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9501404413636</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32321,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>506.0735392239784</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33029,19 +33031,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732812</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673334</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,22 +33496,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.8462560123205</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422518</v>
+        <v>579.529959444713</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34781,16 +34783,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324475</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.330954421548</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>544.5140226420041</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,16 +35497,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>219.1556674334648</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>295.6084283580303</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>476.2000925419561</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288368</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531504</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.86448192629892</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237764</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3036765.404385348</v>
+        <v>3032628.247135196</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>323.2089455706004</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.9202415154696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>54.80909381784145</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>56.87314969971275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>324.5183491707101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>309.3886571431595</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>80.99478744914573</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>251.7205243996717</v>
+        <v>53.43995086960383</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.3313074444624</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>190.5526341827785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722636</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>145.6718493954796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>142.3575218158277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310365</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.42659968729247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>134.5665975534139</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>106.1291803787684</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>39.52129633183164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,13 +3559,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1343012721637</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4105577836251</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.539306344596</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1302.576789404184</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974335</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2448.278478384529</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.139146408717</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.1085201488559</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>454.1085201488559</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>303.9918807365201</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288652</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>732.3487252516918</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>674.901099292386</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>454.1085201488559</v>
+        <v>888.4518357083933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.36845381066</v>
+        <v>1585.174086820818</v>
       </c>
       <c r="C5" t="n">
-        <v>1119.405936870249</v>
+        <v>1585.174086820818</v>
       </c>
       <c r="D5" t="n">
-        <v>761.1402382634981</v>
+        <v>1226.908388214067</v>
       </c>
       <c r="E5" t="n">
-        <v>761.1402382634981</v>
+        <v>841.1201356158228</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>430.1342308262153</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786472</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786472</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.36845381066</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143487</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458206</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.9918807365201</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>303.9918807365201</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1554.633203459199</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1358.00445561906</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1358.00445561906</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1068.886118122898</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>814.2016299170109</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="W7" t="n">
-        <v>524.7844598800502</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X7" t="n">
-        <v>524.7844598800502</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>303.9918807365201</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.574246756698</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.574246756698</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>1198.574246756698</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.574246756698</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>787.5883419670902</v>
+        <v>116.8908811564453</v>
       </c>
       <c r="G8" t="n">
-        <v>371.883591691379</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796631</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.313418796631</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1585.174086820819</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625334</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217537</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.639966294861</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.9442613508774</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.081163059888</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.081163059888</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1243.962825563726</v>
       </c>
       <c r="V10" t="n">
-        <v>1341.385305324647</v>
+        <v>989.2783373578393</v>
       </c>
       <c r="W10" t="n">
-        <v>1341.385305324647</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="X10" t="n">
-        <v>1341.385305324647</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y10" t="n">
-        <v>1120.592726181117</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1541.24257163705</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.82540160009</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,16 +5503,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5524,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978.516248701935</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231728</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6369,19 +6369,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,19 +6478,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7425191625314</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,25 +7192,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.393082295247</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2083.791617318188</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1794.716390662386</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7435,7 +7435,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7599,22 +7599,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7785,25 +7785,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,16 +7830,16 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780631</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>294.8344935184717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>106.0841272570743</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>106.4657939283484</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.3204386478853</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>144.1654765207633</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.1584408891652</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.8202214113354</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>43.26526345294947</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>180.3938179578226</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>38.89198472948087</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>84.77391660561901</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361408</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365059</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>5.610093858194886e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.183430613419001e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
-      </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719586</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719621</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,19 +26444,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719601</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778675</v>
+        <v>-642917.9151778679</v>
       </c>
       <c r="C6" t="n">
+        <v>471833.8683980521</v>
+      </c>
+      <c r="D6" t="n">
         <v>471833.8683980512</v>
       </c>
-      <c r="D6" t="n">
-        <v>471833.8683980517</v>
-      </c>
       <c r="E6" t="n">
-        <v>69959.26982633292</v>
+        <v>69611.89057197556</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965222</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="J6" t="n">
-        <v>409839.5336408963</v>
+        <v>409492.1543865392</v>
       </c>
       <c r="K6" t="n">
-        <v>577444.7114508789</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.7114508786</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.4177219521</v>
+        <v>444490.0384675951</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965222</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508791</v>
+        <v>577097.332196522</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965222</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175396</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.229288266773751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>58.72142450166137</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>256.8108591629994</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>125.0228863640959</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>168.8365056893244</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.35769657100133</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>102.1590456297944</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.56278497042787</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>228.192006061742</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>49.29802816273369</v>
+        <v>247.5786016928016</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>92.33115291727505</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.58500914104954</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30285,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.069522278642316e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-5.229288266773751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,10 +32548,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>506.0735392239784</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,31 +33259,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043748</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,34 +34444,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>579.529959444713</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>497.4319917882568</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K6" t="n">
-        <v>355.330954421548</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977098</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091748</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>544.5140226420041</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977098</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>372.0991318096482</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>440.9755796648388</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3032628.247135196</v>
+        <v>3034388.777437982</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8532359.607226014</v>
+        <v>8532359.607226016</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2089455706004</v>
+        <v>323.2089455706009</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.80909381784145</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>182.5586534459542</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>252.5239959908895</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>309.3886571431595</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.94563726208596</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>53.43995086960383</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.658084792059</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>102.3313074444624</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>65.84451497940199</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5313457611381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>91.87204320893662</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833856</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.36569740310365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821443965</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113089</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605710091</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881112</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301466</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881291</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453092</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>134.4525633547216</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="E2" t="n">
         <v>944.3110907974333</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4372,10 +4372,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1255.41469198592</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1255.41469198592</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>888.4518357083933</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820819</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820819</v>
       </c>
       <c r="D5" t="n">
-        <v>1226.908388214067</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>841.1201356158228</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>430.1342308262153</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1612.258607688552</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460529</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460529</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460529</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460529</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>116.8908811564453</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>105.2265349211383</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460529</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>684.8214259065184</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.081163059888</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.081163059888</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1243.962825563726</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>989.2783373578393</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>699.8611673208786</v>
+        <v>1315.252020778305</v>
       </c>
       <c r="X10" t="n">
-        <v>699.8611673208786</v>
+        <v>1087.262469880288</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>866.4698907367581</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.708435085168</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572612</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154078</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5503,43 +5503,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5892,22 +5892,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
@@ -5998,19 +5998,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551857</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611446</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004695</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406451</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168434</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362508</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075773</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301477</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067996</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694692</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852239</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398576</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492561</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474766</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466556</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122985</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852871</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591791</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615979</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300126</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568975</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028054</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273846</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803925</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951612</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6806,7 +6806,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T33" t="n">
         <v>2244.643795685161</v>
@@ -6824,7 +6824,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011268</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,34 +7001,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075773</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301477</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355926</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067996</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694692</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852239</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398576</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492561</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474766</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300126</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568975</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028054</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273846</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803925</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951612</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7280,7 +7280,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T39" t="n">
         <v>2244.643795685161</v>
@@ -7298,7 +7298,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057735</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797153</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038329</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138347</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="41">
@@ -7402,46 +7402,46 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,34 +7475,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327588</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048519</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925162</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925162</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925162</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603196</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947394</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741507</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704546</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806529</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036629986</v>
       </c>
     </row>
     <row r="44">
@@ -7642,37 +7642,37 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638194282</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111873</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7712,34 +7712,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>779.614337923284</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603196</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515139</v>
+        <v>168.743458178064</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.0841272570743</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>54.56191943763255</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.3204386478853</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891652</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.44677382459263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24894,7 +24894,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405138</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004125023</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194819</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.70888054695968</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>151.7319110345225</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361408</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361413</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.3233361408</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.702887739496267e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289278</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719586</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719621</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,19 +26444,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461720458</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461720051</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461720454</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719665</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26499,13 +26499,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239068</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239068</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778679</v>
+        <v>-642917.9151778681</v>
       </c>
       <c r="C6" t="n">
-        <v>471833.8683980521</v>
+        <v>471833.8683980518</v>
       </c>
       <c r="D6" t="n">
-        <v>471833.8683980512</v>
+        <v>471833.8683980517</v>
       </c>
       <c r="E6" t="n">
-        <v>69611.89057197556</v>
+        <v>69924.53190089703</v>
       </c>
       <c r="F6" t="n">
-        <v>577097.3321965222</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="G6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="H6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="I6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="J6" t="n">
-        <v>409492.1543865392</v>
+        <v>409804.7957154607</v>
       </c>
       <c r="K6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="L6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254459</v>
       </c>
       <c r="M6" t="n">
-        <v>444490.0384675951</v>
+        <v>444802.6797965145</v>
       </c>
       <c r="N6" t="n">
-        <v>577097.3321965222</v>
+        <v>577409.9735254436</v>
       </c>
       <c r="O6" t="n">
-        <v>577097.332196522</v>
+        <v>577409.9735254422</v>
       </c>
       <c r="P6" t="n">
-        <v>577097.3321965222</v>
+        <v>577409.9735254428</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26767,19 +26767,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,31 +26807,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099644</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099644</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.190766243766073e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996142</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>58.72142450166137</v>
+        <v>58.72142450166092</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.0228863640959</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>38.1900425512577</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>102.1590456297935</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>102.1590456297944</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>228.192006061742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>247.5786016928016</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.09417367807589</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>92.33115291727505</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220.678483357189</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.745092959026806e-11</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.736566446197685e-11</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558083</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558083</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067402</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750462</v>
+        <v>418.4229873015963</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893642</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35655,7 +35655,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113638</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683968</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113638</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236334274</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
